--- a/Torres Sánchez José Luis 20212.xlsx
+++ b/Torres Sánchez José Luis 20212.xlsx
@@ -2537,7 +2537,7 @@
         <v>230</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2633,7 +2633,7 @@
         <v>233</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2825,7 +2825,7 @@
         <v>238</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">

--- a/Torres Sánchez José Luis 20212.xlsx
+++ b/Torres Sánchez José Luis 20212.xlsx
@@ -2004,7 +2004,7 @@
         <v>218</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
